--- a/NformTester/NformTester/Keywordscripts/600.20.30.140_PerformReadDataWhenStartingOrStoppingOfServer.xlsx
+++ b/NformTester/NformTester/Keywordscripts/600.20.30.140_PerformReadDataWhenStartingOrStoppingOfServer.xlsx
@@ -1210,7 +1210,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7518" uniqueCount="845">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7530" uniqueCount="844">
   <si>
     <t>FormLogin_to_LiebertR_Nform</t>
   </si>
@@ -3791,48 +3791,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>服务已启动</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>"</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>;Map this Readdata action to Service startup .</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>RawText</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>确定</t>
-    </r>
-  </si>
-  <si>
     <t>;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"Service started"</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3840,7 +3807,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="12">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3908,12 +3875,6 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -4104,74 +4065,6 @@
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -4603,7 +4496,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="C7EDCC"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -4880,10 +4773,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O94"/>
+  <dimension ref="A1:O97"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" topLeftCell="E37" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E64" sqref="E64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -5094,7 +4987,7 @@
         <v>773</v>
       </c>
       <c r="B7" s="16">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="C7" s="8">
         <v>6</v>
@@ -5686,7 +5579,7 @@
         <v>26</v>
       </c>
       <c r="D27" s="9" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="E27" s="6"/>
       <c r="F27" s="8"/>
@@ -5866,7 +5759,7 @@
         <v>56</v>
       </c>
       <c r="H34" s="8" t="s">
-        <v>841</v>
+        <v>843</v>
       </c>
       <c r="I34" s="8"/>
       <c r="J34" s="8"/>
@@ -6280,7 +6173,7 @@
         <v>735</v>
       </c>
       <c r="F52" s="8" t="s">
-        <v>843</v>
+        <v>17</v>
       </c>
       <c r="G52" s="3" t="s">
         <v>2</v>
@@ -6388,13 +6281,13 @@
         <v>56</v>
       </c>
       <c r="D57" s="5" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="E57" s="6" t="s">
         <v>735</v>
       </c>
       <c r="F57" s="8" t="s">
-        <v>843</v>
+        <v>17</v>
       </c>
       <c r="G57" s="3" t="s">
         <v>2</v>
@@ -6886,14 +6779,12 @@
         <v>306</v>
       </c>
       <c r="F77" s="8" t="s">
-        <v>309</v>
+        <v>99</v>
       </c>
       <c r="G77" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="H77" s="6" t="s">
-        <v>835</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H77" s="8"/>
       <c r="I77" s="8"/>
       <c r="J77" s="8"/>
       <c r="K77" s="8"/>
@@ -6906,13 +6797,13 @@
         <v>77</v>
       </c>
       <c r="D78" s="11" t="s">
-        <v>788</v>
-      </c>
-      <c r="E78" s="6" t="s">
-        <v>306</v>
+        <v>790</v>
+      </c>
+      <c r="E78" s="8" t="s">
+        <v>19</v>
       </c>
       <c r="F78" s="8" t="s">
-        <v>184</v>
+        <v>22</v>
       </c>
       <c r="G78" s="8" t="s">
         <v>2</v>
@@ -6930,13 +6821,13 @@
         <v>78</v>
       </c>
       <c r="D79" s="11" t="s">
-        <v>788</v>
-      </c>
-      <c r="E79" s="6" t="s">
-        <v>814</v>
+        <v>790</v>
+      </c>
+      <c r="E79" s="8" t="s">
+        <v>19</v>
       </c>
       <c r="F79" s="8" t="s">
-        <v>200</v>
+        <v>79</v>
       </c>
       <c r="G79" s="8" t="s">
         <v>2</v>
@@ -6954,16 +6845,20 @@
         <v>79</v>
       </c>
       <c r="D80" s="11" t="s">
-        <v>793</v>
+        <v>788</v>
       </c>
       <c r="E80" s="6" t="s">
-        <v>756</v>
-      </c>
-      <c r="F80" s="8">
-        <v>5</v>
-      </c>
-      <c r="G80" s="8"/>
-      <c r="H80" s="8"/>
+        <v>306</v>
+      </c>
+      <c r="F80" s="8" t="s">
+        <v>309</v>
+      </c>
+      <c r="G80" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="H80" s="6" t="s">
+        <v>835</v>
+      </c>
       <c r="I80" s="8"/>
       <c r="J80" s="8"/>
       <c r="K80" s="8"/>
@@ -6982,7 +6877,7 @@
         <v>306</v>
       </c>
       <c r="F81" s="8" t="s">
-        <v>99</v>
+        <v>184</v>
       </c>
       <c r="G81" s="8" t="s">
         <v>2</v>
@@ -6995,16 +6890,22 @@
       <c r="M81" s="8"/>
       <c r="N81" s="10"/>
     </row>
-    <row r="82" spans="3:14" ht="15">
+    <row r="82" spans="3:14">
       <c r="C82" s="8">
         <v>81</v>
       </c>
-      <c r="D82" s="9" t="s">
-        <v>815</v>
-      </c>
-      <c r="E82" s="6"/>
-      <c r="F82" s="8"/>
-      <c r="G82" s="8"/>
+      <c r="D82" s="11" t="s">
+        <v>788</v>
+      </c>
+      <c r="E82" s="6" t="s">
+        <v>814</v>
+      </c>
+      <c r="F82" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="G82" s="8" t="s">
+        <v>2</v>
+      </c>
       <c r="H82" s="8"/>
       <c r="I82" s="8"/>
       <c r="J82" s="8"/>
@@ -7018,10 +6919,10 @@
         <v>82</v>
       </c>
       <c r="D83" s="11" t="s">
-        <v>816</v>
+        <v>793</v>
       </c>
       <c r="E83" s="6" t="s">
-        <v>817</v>
+        <v>756</v>
       </c>
       <c r="F83" s="8">
         <v>5</v>
@@ -7043,40 +6944,34 @@
         <v>788</v>
       </c>
       <c r="E84" s="6" t="s">
-        <v>19</v>
+        <v>306</v>
       </c>
       <c r="F84" s="8" t="s">
-        <v>22</v>
+        <v>99</v>
       </c>
       <c r="G84" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="H84" s="6"/>
-      <c r="I84" s="6"/>
+      <c r="H84" s="8"/>
+      <c r="I84" s="8"/>
       <c r="J84" s="8"/>
       <c r="K84" s="8"/>
       <c r="L84" s="8"/>
       <c r="M84" s="8"/>
       <c r="N84" s="10"/>
     </row>
-    <row r="85" spans="3:14">
+    <row r="85" spans="3:14" ht="15">
       <c r="C85" s="8">
         <v>84</v>
       </c>
-      <c r="D85" s="11" t="s">
-        <v>818</v>
-      </c>
-      <c r="E85" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="F85" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="G85" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="H85" s="6"/>
-      <c r="I85" s="6"/>
+      <c r="D85" s="9" t="s">
+        <v>815</v>
+      </c>
+      <c r="E85" s="6"/>
+      <c r="F85" s="8"/>
+      <c r="G85" s="8"/>
+      <c r="H85" s="8"/>
+      <c r="I85" s="8"/>
       <c r="J85" s="8"/>
       <c r="K85" s="8"/>
       <c r="L85" s="8"/>
@@ -7088,20 +6983,16 @@
         <v>85</v>
       </c>
       <c r="D86" s="11" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="E86" s="6" t="s">
-        <v>819</v>
-      </c>
-      <c r="F86" s="8" t="s">
-        <v>578</v>
-      </c>
-      <c r="G86" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="H86" s="8" t="s">
-        <v>797</v>
-      </c>
+        <v>817</v>
+      </c>
+      <c r="F86" s="8">
+        <v>5</v>
+      </c>
+      <c r="G86" s="8"/>
+      <c r="H86" s="8"/>
       <c r="I86" s="8"/>
       <c r="J86" s="8"/>
       <c r="K86" s="8"/>
@@ -7109,24 +7000,24 @@
       <c r="M86" s="8"/>
       <c r="N86" s="10"/>
     </row>
-    <row r="87" spans="3:14" ht="14.25">
+    <row r="87" spans="3:14">
       <c r="C87" s="8">
         <v>86</v>
       </c>
       <c r="D87" s="11" t="s">
-        <v>818</v>
+        <v>788</v>
       </c>
       <c r="E87" s="6" t="s">
-        <v>819</v>
+        <v>19</v>
       </c>
       <c r="F87" s="8" t="s">
-        <v>184</v>
+        <v>22</v>
       </c>
       <c r="G87" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="H87" s="13"/>
-      <c r="I87" s="8"/>
+      <c r="H87" s="6"/>
+      <c r="I87" s="6"/>
       <c r="J87" s="8"/>
       <c r="K87" s="8"/>
       <c r="L87" s="8"/>
@@ -7140,17 +7031,17 @@
       <c r="D88" s="11" t="s">
         <v>818</v>
       </c>
-      <c r="E88" s="8" t="s">
-        <v>585</v>
+      <c r="E88" s="6" t="s">
+        <v>19</v>
       </c>
       <c r="F88" s="8" t="s">
-        <v>200</v>
+        <v>78</v>
       </c>
       <c r="G88" s="8" t="s">
         <v>2</v>
       </c>
       <c r="H88" s="6"/>
-      <c r="I88" s="8"/>
+      <c r="I88" s="6"/>
       <c r="J88" s="8"/>
       <c r="K88" s="8"/>
       <c r="L88" s="8"/>
@@ -7168,34 +7059,38 @@
         <v>819</v>
       </c>
       <c r="F89" s="8" t="s">
-        <v>99</v>
+        <v>578</v>
       </c>
       <c r="G89" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="H89" s="6"/>
-      <c r="I89" s="6"/>
+        <v>3</v>
+      </c>
+      <c r="H89" s="8" t="s">
+        <v>797</v>
+      </c>
+      <c r="I89" s="8"/>
       <c r="J89" s="8"/>
       <c r="K89" s="8"/>
       <c r="L89" s="8"/>
       <c r="M89" s="8"/>
       <c r="N89" s="10"/>
     </row>
-    <row r="90" spans="3:14">
+    <row r="90" spans="3:14" ht="14.25">
       <c r="C90" s="8">
         <v>89</v>
       </c>
       <c r="D90" s="11" t="s">
-        <v>793</v>
+        <v>818</v>
       </c>
       <c r="E90" s="6" t="s">
-        <v>817</v>
-      </c>
-      <c r="F90" s="8">
-        <v>3</v>
-      </c>
-      <c r="G90" s="8"/>
-      <c r="H90" s="8"/>
+        <v>819</v>
+      </c>
+      <c r="F90" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="G90" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="H90" s="13"/>
       <c r="I90" s="8"/>
       <c r="J90" s="8"/>
       <c r="K90" s="8"/>
@@ -7203,10 +7098,80 @@
       <c r="M90" s="8"/>
       <c r="N90" s="10"/>
     </row>
-    <row r="94" spans="3:14" ht="65.25" customHeight="1"/>
+    <row r="91" spans="3:14">
+      <c r="C91" s="8">
+        <v>90</v>
+      </c>
+      <c r="D91" s="11" t="s">
+        <v>818</v>
+      </c>
+      <c r="E91" s="8" t="s">
+        <v>585</v>
+      </c>
+      <c r="F91" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="G91" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="H91" s="6"/>
+      <c r="I91" s="8"/>
+      <c r="J91" s="8"/>
+      <c r="K91" s="8"/>
+      <c r="L91" s="8"/>
+      <c r="M91" s="8"/>
+      <c r="N91" s="10"/>
+    </row>
+    <row r="92" spans="3:14">
+      <c r="C92" s="8">
+        <v>91</v>
+      </c>
+      <c r="D92" s="11" t="s">
+        <v>818</v>
+      </c>
+      <c r="E92" s="6" t="s">
+        <v>819</v>
+      </c>
+      <c r="F92" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="G92" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="H92" s="6"/>
+      <c r="I92" s="6"/>
+      <c r="J92" s="8"/>
+      <c r="K92" s="8"/>
+      <c r="L92" s="8"/>
+      <c r="M92" s="8"/>
+      <c r="N92" s="10"/>
+    </row>
+    <row r="93" spans="3:14">
+      <c r="C93" s="8">
+        <v>92</v>
+      </c>
+      <c r="D93" s="11" t="s">
+        <v>793</v>
+      </c>
+      <c r="E93" s="6" t="s">
+        <v>817</v>
+      </c>
+      <c r="F93" s="8">
+        <v>3</v>
+      </c>
+      <c r="G93" s="8"/>
+      <c r="H93" s="8"/>
+      <c r="I93" s="8"/>
+      <c r="J93" s="8"/>
+      <c r="K93" s="8"/>
+      <c r="L93" s="8"/>
+      <c r="M93" s="8"/>
+      <c r="N93" s="10"/>
+    </row>
+    <row r="97" ht="65.25" customHeight="1"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="N2:N90">
+  <conditionalFormatting sqref="N2:N93">
     <cfRule type="cellIs" dxfId="1" priority="57" stopIfTrue="1" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
@@ -7215,16 +7180,16 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G87:G90 G2:G85">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G90:G93 G2:G88">
       <formula1>INDIRECT(SUBSTITUTE(E2&amp;F2," ",""))</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F64:F90 F2:F43 F45:F62">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F45:F62 F2:F43 F64:F93">
       <formula1>OFFSET(INDIRECT($E2),0,0,COUNTA(INDIRECT(E2&amp;"Col")),1)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D76:D81 D67:D73 D84 D90 D58:D65 D39:D44 D7:D22 D28:D37 D26 D3 D51">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D51 D67:D73 D87 D93 D58:D65 D39:D44 D7:D22 D28:D37 D26 D3 D76:D84">
       <formula1>"C,F,T,;"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E90">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E93">
       <formula1>Forms</formula1>
     </dataValidation>
   </dataValidations>

--- a/NformTester/NformTester/Keywordscripts/600.20.30.140_PerformReadDataWhenStartingOrStoppingOfServer.xlsx
+++ b/NformTester/NformTester/Keywordscripts/600.20.30.140_PerformReadDataWhenStartingOrStoppingOfServer.xlsx
@@ -3779,10 +3779,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>$SNMP_SearchStart_1$</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>"Application alarms"</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3800,6 +3796,10 @@
   </si>
   <si>
     <t>"Service started"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$NAME_ACTION_SearchStart_0$</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4775,8 +4775,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E37" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E64" sqref="E64"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -5365,7 +5365,7 @@
         <v>13</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>838</v>
+        <v>843</v>
       </c>
       <c r="I19" s="6"/>
       <c r="J19" s="3"/>
@@ -5579,7 +5579,7 @@
         <v>26</v>
       </c>
       <c r="D27" s="9" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="E27" s="6"/>
       <c r="F27" s="8"/>
@@ -5707,7 +5707,7 @@
         <v>799</v>
       </c>
       <c r="H32" s="8" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="I32" s="8"/>
       <c r="J32" s="8"/>
@@ -5724,7 +5724,7 @@
         <v>788</v>
       </c>
       <c r="E33" s="8" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="F33" s="8" t="s">
         <v>394</v>
@@ -5759,7 +5759,7 @@
         <v>56</v>
       </c>
       <c r="H34" s="8" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="I34" s="8"/>
       <c r="J34" s="8"/>
@@ -6281,7 +6281,7 @@
         <v>56</v>
       </c>
       <c r="D57" s="5" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="E57" s="6" t="s">
         <v>735</v>
